--- a/biology/Botanique/Chrysobalanaceae/Chrysobalanaceae.xlsx
+++ b/biology/Botanique/Chrysobalanaceae/Chrysobalanaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chrysobalanaceae (les Chrysobalanacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales. Elle comprend dans les 400-700 espèces réparties en 8 à 36 genres.
 Ce sont des arbres et arbustes des régions tropicales.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Chrysobalanus composé du grec χρυσός / chrysos, or, doré, et βάλανος / balanos, gland, en référence à la forme et à la couleur des fruits de certaines espèces de ce genre.
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1], cette famille faisait partie de l'ordre des Rosales
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille faisait partie de l'ordre des Rosales
 La classification phylogénétique la situe dans les Malpighiales. 
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (14 février 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (14 février 2022) :
 genre Acioa Aubl.   -   8 sp.
 genre Afrolicania Mildbr.   -   1 sp.
 genre Angelesia Korth.   -   3 sp.
@@ -614,7 +632,7 @@
 genre Parinari Aubl.   -   63 sp.
 genre Parinariopsis (Huber) Sothers &amp; Prance   -   1 sp.
 genre Thelira Du Petit-Thouars, 1806
-Selon World Flora Online (WFO)       (14 février 2022)[3] :
+Selon World Flora Online (WFO)       (14 février 2022) :
 genre Acioa Aubl.
 genre Atuna Raf.
 genre Bafodeya Prance ex F. White
@@ -632,7 +650,7 @@
 genre Neocarya (DC.) Prance ex F. White
 genre Parastemon A. DC.
 genre Parinari Aubl.
-Selon World Checklist of Selected Plant Families (WCSP)  (19 mai 2010)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (19 mai 2010) :
 genre Acioa Aubl. (1775)
 genre Afrolicania Mildbr. (1921)
 genre Atuna Raf. (1838)
@@ -651,7 +669,7 @@
 genre Neocarya (DC.) Prance ex F.White (1976)
 genre Parastemon A.DC., Ann. Sci. Nat. (1842)
 genre Parinari Aubl. (1775)
-Selon Angiosperm Phylogeny Website                        (19 mai 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 genre Acioa Aubl.
 genre Afrolicania Mildbr.
 genre Atuna Raf.
@@ -669,7 +687,7 @@
 genre Neocarya (DC.) Prance ex F.White
 genre Parastemon A.DC.
 genre Parinari Aubl.
-Selon NCBI  (19 mai 2010)[6] :
+Selon NCBI  (19 mai 2010) :
 genre Acioa
 genre Atuna
 genre Chrysobalanus
@@ -678,7 +696,7 @@
 genre Licania
 genre Parinari
 genre Trichocarya
-Selon DELTA Angio           (19 mai 2010)[7] :
+Selon DELTA Angio           (19 mai 2010) :
 genre Acioa
 genre Atuna
 genre Bafodeya
@@ -696,7 +714,7 @@
 genre Neocarya
 genre Parastemon
 genre Parinari
-Selon ITIS      (19 mai 2010)[8] :
+Selon ITIS      (19 mai 2010) :
 genre Chrysobalanus L.
 genre Hirtella L.
 genre Licania Aubl.
@@ -729,9 +747,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (19 mai 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (19 mai 2010) :
 genre Acioa
 Acioa guianensis
 genre Atuna
